--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto2_cd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_D54E3ED17171EEE330170B386BDEC555512D7961" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DDCE0DB2-D8D6-4DA2-82C9-3BE8362EE717}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_D54E3ED17171EEE330170B386BDEC555512D7961" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{831300DF-DEFC-4D0A-A942-D69A43DEDCB0}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,14 +1107,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1163,7 +1155,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1525,234 +1517,353 @@
       <c r="A2" t="s">
         <v>179</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>289</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>331</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>251</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>325</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>81</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>210</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>210</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>126</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>29</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>235</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>246</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>246</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>302</v>
       </c>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto2_cd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED4A5CC-6893-D447-AE9D-E829B3DFA6C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D5CE66-AB5F-044B-AFF2-E7B1D59788D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27740" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="657">
   <si>
     <t>o melhor tbt é quando vc termina de tomar um açaí, e compra outro pra relembrar como está a gostoso k último que você tomou. ♥️✔️💭</t>
   </si>
@@ -2514,13 +2514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="112.1640625" customWidth="1"/>
+    <col min="1" max="1" width="174" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2535,1660 +2535,2656 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4198,90 +5194,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1DABB4-89A3-F64F-BDC0-544EED467750}">
-  <dimension ref="A1:A334"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="162.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>347</v>
       </c>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CD090D23-DED0-42E4-A386-091C2AA08E41}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1000" windowWidth="9955" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2425,12 +2425,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,16 +2772,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>747</v>
       </c>
@@ -2788,2247 +2789,2352 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A304" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A305" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A306" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A307" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A308" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A309" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A310" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A311" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A312" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A313" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A314" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A315" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A316" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A317" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A318" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A319" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A320" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A321" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A322" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A323" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A324" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A325" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A326" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A327" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A328" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A329" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A330" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A331" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A332" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A333" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A334" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A335" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A336" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A337" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A338" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A339" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A340" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A341" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A342" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A343" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A344" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A345" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A346" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A347" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A348" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A350" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A351" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A352" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A353" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A354" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A355" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A356" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A357" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A358" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A359" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A360" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A361" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A362" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A363" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A364" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A365" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A366" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A367" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A368" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A369" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A370" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A371" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A372" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A373" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A374" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A375" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A376" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A377" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A378" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A379" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A380" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A381" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A382" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A383" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A384" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A385" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A386" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A387" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A388" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A389" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A390" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A391" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A392" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A393" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A394" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A395" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A396" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A397" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A398" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A399" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A400" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A401" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A402" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A403" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A404" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A405" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A406" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A407" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A408" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A409" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A410" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A411" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A412" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A413" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A414" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A415" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A416" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A417" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A418" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A419" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A420" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A421" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A422" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A423" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A424" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A425" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A426" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A427" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A428" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A429" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A430" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A431" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A432" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A433" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A434" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A435" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A436" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A437" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A438" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A439" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A440" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A441" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A442" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A443" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A444" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A445" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A446" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A447" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A448" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A449" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -5049,1504 +5155,1504 @@
       <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>750</v>
       </c>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CD090D23-DED0-42E4-A386-091C2AA08E41}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5477EFB2-00E7-4273-B414-A30A27BDA443}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1000" windowWidth="9955" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2373,7 +2373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,6 +2383,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2425,13 +2433,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2772,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3073,538 +3082,824 @@
       <c r="A37" t="s">
         <v>367</v>
       </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>90</v>
       </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>240</v>
       </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>392</v>
       </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>330</v>
       </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>70</v>
       </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>262</v>
       </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>67</v>
       </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>293</v>
       </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>746</v>
       </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>206</v>
       </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>361</v>
       </c>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CD090D23-DED0-42E4-A386-091C2AA08E41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B9547E-F340-7C4A-A521-73B8B3E46A22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1000" windowWidth="9955" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="752">
   <si>
     <t>um açaí de um litro agora cairia muito bem😋😋😋</t>
   </si>
@@ -2367,6 +2367,9 @@
   </si>
   <si>
     <t>como alguem pode gostar de acai? Gosto de terra</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -2772,16 +2775,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>747</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>441</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>332</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>391</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>419</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>433</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -3069,2072 +3072,2072 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -5149,1515 +5152,2429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
-  <dimension ref="A1:A300"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="114.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>705</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>744</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>606</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>675</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>689</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>636</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>733</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>491</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>535</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>510</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>688</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>684</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>749</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>660</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>590</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>656</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>641</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>722</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>611</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>630</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>537</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>612</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>566</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>477</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>646</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>717</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>692</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>687</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>559</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>658</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>750</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>619</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>652</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>509</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>584</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>666</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>721</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>628</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>503</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>605</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>511</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>595</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>668</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>495</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>473</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>743</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>568</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>549</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>718</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>703</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>706</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>575</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>683</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>624</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>531</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>699</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>726</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>600</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>451</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>583</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>581</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>453</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>470</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>521</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>586</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>617</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>496</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>644</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>449</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>563</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>571</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>540</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>604</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>588</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>727</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>591</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>627</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>677</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>673</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>572</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>618</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>554</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>493</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>574</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>685</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>654</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>620</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>524</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>455</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>610</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>552</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>482</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>541</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>520</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>734</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>631</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>529</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>501</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>533</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>704</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>731</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>497</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>741</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>548</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>739</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>471</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>698</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>555</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>643</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>710</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>730</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>468</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>601</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>476</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>498</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>489</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>464</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>565</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>528</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>516</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>690</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>695</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>647</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>645</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>662</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>594</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>513</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>716</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>561</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>480</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>650</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>532</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>616</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>671</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>629</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>711</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>729</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>576</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>679</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>460</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>508</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>609</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>507</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>492</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>663</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>691</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>665</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>585</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>696</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>522</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>573</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>639</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>702</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>615</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>719</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>596</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>534</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>582</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>714</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>697</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>602</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>494</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>547</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>735</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>651</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>517</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>720</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>545</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>708</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>538</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>625</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>525</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>622</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>567</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>546</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>669</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>514</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>486</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>570</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>502</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>633</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>483</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>603</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>715</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>742</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>674</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>700</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>682</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>709</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>724</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>632</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>740</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>518</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>621</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>466</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>613</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>461</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>598</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>626</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>459</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>527</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>676</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>737</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>614</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>736</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>578</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>608</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>667</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>713</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>580</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>694</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>592</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>672</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>542</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>707</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>745</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>469</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>562</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>637</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>661</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>642</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>490</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>725</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>664</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>475</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>539</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>519</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>670</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>686</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>579</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>485</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>550</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>599</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>504</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>623</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>526</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>728</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>597</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A55" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A58" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A60" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A62" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A63" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A64" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A66" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A68" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A69" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A70" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A71" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A72" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A73" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A74" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A75" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A76" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A77" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A78" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A79" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A80" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A81" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A82" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A84" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A85" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A87" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A88" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A89" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A90" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A91" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A92" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A93" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A94" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A95" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A96" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A97" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A98" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A99" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A100" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A101" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A102" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A103" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A104" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A105" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A106" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A107" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A108" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A110" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>659</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>634</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>653</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>680</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>649</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>693</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A111" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A112" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A113" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A114" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A115" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A116" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A117" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A118" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A119" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A120" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A121" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A122" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A123" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A124" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A125" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A126" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A127" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A128" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A129" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A130" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A131" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A132" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A133" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A134" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A135" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A136" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A137" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A138" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A139" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A140" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A141" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A142" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A143" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A144" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A145" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A146" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A147" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A148" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A149" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A150" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A151" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A152" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A153" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A154" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A155" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A156" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A157" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A158" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A159" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A160" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A161" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A162" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A163" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A164" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A165" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A166" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A167" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A168" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A169" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A170" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A171" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A172" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A173" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A174" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A175" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A176" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A177" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A178" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A179" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A180" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A181" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A182" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A183" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A184" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A185" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A186" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A187" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A188" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A189" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A190" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A191" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A192" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A193" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A194" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A195" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A196" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A197" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A198" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A199" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A200" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A201" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A202" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A203" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A204" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A205" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A206" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A207" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A208" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A209" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A210" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A211" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A212" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A213" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A214" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A215" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A216" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A217" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A218" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A219" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A220" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A221" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A222" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A223" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A224" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A225" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A226" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A227" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A228" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A229" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A230" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A231" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A232" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A233" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A234" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A235" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A236" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A237" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A238" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A239" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A240" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A241" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A242" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A243" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A244" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A245" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A246" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A247" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A248" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A249" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A250" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A251" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A252" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A253" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A254" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A255" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A256" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A257" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A258" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A259" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A260" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A261" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A262" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A263" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A264" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A265" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A266" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A267" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A268" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A269" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A270" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A271" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A272" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A273" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A274" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A275" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A276" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A277" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A278" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A279" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A280" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A281" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A282" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A283" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A284" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A285" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A286" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A287" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A288" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A289" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A290" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A291" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A292" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A293" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A294" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A295" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A296" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A297" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A298" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A299" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A300" t="s">
-        <v>750</v>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
+    <sortCondition ref="A2:A301"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5477EFB2-00E7-4273-B414-A30A27BDA443}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{81F578ED-8B36-4425-B5A9-CE9F7AFB2441}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,7 +2373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,14 +2383,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2433,14 +2425,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2781,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3266,7 +3257,7 @@
       <c r="A60" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3842,1596 +3833,2552 @@
       <c r="A132" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="4"/>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>107</v>
       </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>270</v>
       </c>
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>359</v>
       </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>252</v>
       </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>295</v>
       </c>
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>212</v>
       </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>400</v>
       </c>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>123</v>
       </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>407</v>
       </c>
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>78</v>
       </c>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>256</v>
       </c>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A304" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A305" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A306" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A307" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A308" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A309" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A310" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A311" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A312" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A313" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A314" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A315" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A316" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A317" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A318" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A319" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A320" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A321" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A322" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A323" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A324" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A325" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A326" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A327" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A328" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A329" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A330" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A331" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A332" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A333" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A334" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A335" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A336" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A337" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A338" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A339" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A340" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A341" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A342" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A343" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A344" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A345" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A346" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A347" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A348" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A349" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A350" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A351" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A352" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A353" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A354" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A355" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A356" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A357" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A358" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A359" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A360" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A361" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A362" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A363" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A364" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A365" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A366" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A367" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A368" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A369" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A370" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A371" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A372" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A373" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A374" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A375" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A376" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A377" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A378" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A379" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A380" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A381" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A382" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A383" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A384" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A385" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A386" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A387" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A388" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A389" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A390" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A391" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A392" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A393" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A394" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A395" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A396" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A397" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A398" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A399" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A400" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A401" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A402" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A403" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A404" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A405" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A406" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A407" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A408" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A409" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A410" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A411" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A412" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A413" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A414" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A415" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A416" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A417" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A418" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A419" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A420" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A421" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A422" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A423" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A424" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A425" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A426" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A427" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A428" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A429" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A430" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A431" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A432" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A433" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A434" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A435" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A436" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A437" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A438" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A439" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A440" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A441" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A442" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A443" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A444" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A445" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A446" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A447" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A448" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A449" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A450" t="s">
         <v>9</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{D547ACD8-86A8-324E-A530-EAE3E42D4702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{81F578ED-8B36-4425-B5A9-CE9F7AFB2441}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094480A7-DDF4-1349-B673-9DA885695E66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="754">
   <si>
     <t>um açaí de um litro agora cairia muito bem😋😋😋</t>
   </si>
@@ -2347,9 +2355,6 @@
     <t>eu e a @ivanessa_barth1 marcando de ir tomar açaí kkkkkk https://t.co/ibp8lvmh61</t>
   </si>
   <si>
-    <t>@leticia_seavey @urreanosh letícia???? puts eu esperava mais, açaí é tudo</t>
-  </si>
-  <si>
     <t>tô doida p comer açaí</t>
   </si>
   <si>
@@ -2367,6 +2372,18 @@
   </si>
   <si>
     <t>como alguem pode gostar de acai? Gosto de terra</t>
+  </si>
+  <si>
+    <t>odeio acai!!</t>
+  </si>
+  <si>
+    <t>acai é muito ruim!!</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>nao gosto de acai</t>
   </si>
 </sst>
 </file>
@@ -2770,26 +2787,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="1" max="1" width="236.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -2797,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2805,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -2813,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -2821,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -2837,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2845,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -2853,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -2861,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -2869,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -2877,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -2885,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -2893,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2901,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -2909,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>441</v>
       </c>
@@ -2917,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -2925,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2933,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -2957,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2965,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>332</v>
       </c>
@@ -2973,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>391</v>
       </c>
@@ -2981,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -2989,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2997,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3005,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -3013,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -3021,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -3037,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>419</v>
       </c>
@@ -3045,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>433</v>
       </c>
@@ -3053,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3061,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -3069,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>367</v>
       </c>
@@ -3077,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -3085,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -3093,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -3101,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -3109,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3117,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>262</v>
       </c>
@@ -3125,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -3133,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -3141,15 +3158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -3157,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -3165,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -3173,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -3189,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -3197,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>336</v>
       </c>
@@ -3205,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -3213,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -3221,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -3229,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3237,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -3245,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -3253,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -3261,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>342</v>
       </c>
@@ -3269,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -3277,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -3285,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>442</v>
       </c>
@@ -3301,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3309,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>377</v>
       </c>
@@ -3317,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -3325,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>343</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>248</v>
       </c>
@@ -3341,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -3365,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -3373,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3389,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -3397,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -3405,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>309</v>
       </c>
@@ -3413,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>267</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3445,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -3453,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -3461,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -3477,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -3501,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -3509,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -3517,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -3525,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -3533,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -3541,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -3549,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -3557,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -3565,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -3573,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -3581,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>219</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -3597,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>334</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3613,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -3621,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -3629,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -3637,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>282</v>
       </c>
@@ -3645,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>57</v>
       </c>
@@ -3653,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -3661,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -3669,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>357</v>
       </c>
@@ -3677,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -3685,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -3693,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -3701,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3709,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>393</v>
       </c>
@@ -3717,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>271</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>324</v>
       </c>
@@ -3733,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>389</v>
       </c>
@@ -3749,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -3757,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -3765,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>368</v>
       </c>
@@ -3773,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -3781,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>396</v>
       </c>
@@ -3789,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>445</v>
       </c>
@@ -3797,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>447</v>
       </c>
@@ -3805,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -3813,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>302</v>
       </c>
@@ -3821,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3837,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>107</v>
       </c>
@@ -3845,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -3853,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>359</v>
       </c>
@@ -3861,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -3877,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>212</v>
       </c>
@@ -3885,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>400</v>
       </c>
@@ -3893,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -3901,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>407</v>
       </c>
@@ -3909,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -3917,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>256</v>
       </c>
@@ -3925,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>361</v>
       </c>
@@ -3933,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>224</v>
       </c>
@@ -3941,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>68</v>
       </c>
@@ -3949,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -3957,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -3965,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>321</v>
       </c>
@@ -3973,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -3981,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -3989,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>225</v>
       </c>
@@ -3997,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -4005,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -4013,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>54</v>
       </c>
@@ -4021,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>390</v>
       </c>
@@ -4029,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>257</v>
       </c>
@@ -4037,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>402</v>
       </c>
@@ -4045,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>404</v>
       </c>
@@ -4053,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -4061,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>235</v>
       </c>
@@ -4069,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -4077,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>74</v>
       </c>
@@ -4085,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -4093,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -4101,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>399</v>
       </c>
@@ -4109,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>412</v>
       </c>
@@ -4117,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>397</v>
       </c>
@@ -4125,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4133,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>255</v>
       </c>
@@ -4141,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>387</v>
       </c>
@@ -4149,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>264</v>
       </c>
@@ -4157,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>319</v>
       </c>
@@ -4165,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -4173,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>432</v>
       </c>
@@ -4181,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>354</v>
       </c>
@@ -4189,7 +4206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>268</v>
       </c>
@@ -4197,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>34</v>
       </c>
@@ -4205,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -4213,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>237</v>
       </c>
@@ -4221,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>260</v>
       </c>
@@ -4229,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>246</v>
       </c>
@@ -4237,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -4245,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>296</v>
       </c>
@@ -4253,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>314</v>
       </c>
@@ -4261,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -4269,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -4277,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -4285,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>325</v>
       </c>
@@ -4293,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -4301,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>291</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>306</v>
       </c>
@@ -4317,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>234</v>
       </c>
@@ -4325,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>381</v>
       </c>
@@ -4333,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -4341,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -4349,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>364</v>
       </c>
@@ -4365,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>163</v>
       </c>
@@ -4373,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -4381,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>269</v>
       </c>
@@ -4389,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>101</v>
       </c>
@@ -4397,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>318</v>
       </c>
@@ -4405,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>320</v>
       </c>
@@ -4413,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>152</v>
       </c>
@@ -4421,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -4429,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -4437,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>313</v>
       </c>
@@ -4445,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>311</v>
       </c>
@@ -4453,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>430</v>
       </c>
@@ -4461,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>275</v>
       </c>
@@ -4469,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4477,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>347</v>
       </c>
@@ -4485,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -4493,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>308</v>
       </c>
@@ -4501,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>423</v>
       </c>
@@ -4517,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>414</v>
       </c>
@@ -4525,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>299</v>
       </c>
@@ -4541,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>161</v>
       </c>
@@ -4549,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -4557,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>148</v>
       </c>
@@ -4565,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -4573,1817 +4590,1825 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>750</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>285</v>
       </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A226" t="s">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>300</v>
       </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A227" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>122</v>
       </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A228" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>422</v>
       </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A229" t="s">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>388</v>
       </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A230" t="s">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>371</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A231" t="s">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>245</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A232" t="s">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>335</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A233" t="s">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>45</v>
       </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A234" t="s">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>410</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A235" t="s">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>220</v>
       </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A236" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>79</v>
       </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A237" t="s">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>403</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A238" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>39</v>
       </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A239" t="s">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>374</v>
       </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A240" t="s">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>443</v>
       </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A241" t="s">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>145</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A242" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>213</v>
       </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A243" t="s">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>113</v>
       </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A244" t="s">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>139</v>
       </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A245" t="s">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>199</v>
       </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A246" t="s">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>405</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A247" t="s">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>156</v>
       </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A248" t="s">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>315</v>
       </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A249" t="s">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>133</v>
       </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A250" t="s">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>327</v>
       </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A251" t="s">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>55</v>
       </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A252" t="s">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>196</v>
       </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A253" t="s">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>409</v>
       </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A254" t="s">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>355</v>
       </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A255" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>287</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A256" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>164</v>
       </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A257" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>254</v>
       </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A258" t="s">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>36</v>
       </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A259" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>426</v>
       </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A260" t="s">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>420</v>
       </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A261" t="s">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>344</v>
       </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A262" t="s">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>135</v>
       </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A263" t="s">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>279</v>
       </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A264" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>115</v>
       </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A265" t="s">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A266" t="s">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>385</v>
       </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A267" t="s">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>329</v>
       </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A268" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
         <v>338</v>
       </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A269" t="s">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>192</v>
       </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A270" t="s">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>230</v>
       </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A271" t="s">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>278</v>
       </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A272" t="s">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>421</v>
       </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A273" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>205</v>
       </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A274" t="s">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>366</v>
       </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A275" t="s">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>154</v>
       </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A276" t="s">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>406</v>
       </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A277" t="s">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>365</v>
       </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A278" t="s">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>12</v>
       </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A279" t="s">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>131</v>
       </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A280" t="s">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
         <v>42</v>
       </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A281" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>242</v>
       </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A282" t="s">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>73</v>
       </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A283" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>337</v>
       </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A284" t="s">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>128</v>
       </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A285" t="s">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>43</v>
       </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A286" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>398</v>
       </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A287" t="s">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>119</v>
       </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A288" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>181</v>
       </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A289" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>418</v>
       </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A290" t="s">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>11</v>
       </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A291" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>60</v>
       </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A292" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>10</v>
       </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A293" t="s">
-        <v>1</v>
-      </c>
       <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>253</v>
       </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A295" t="s">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>305</v>
       </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A296" t="s">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>202</v>
       </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A297" t="s">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
         <v>289</v>
       </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A298" t="s">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>216</v>
       </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A299" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>370</v>
       </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A300" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>7</v>
       </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A301" t="s">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>382</v>
       </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A302" t="s">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>249</v>
       </c>
-      <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A303" t="s">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>239</v>
       </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A304" t="s">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>444</v>
       </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A305" t="s">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>435</v>
       </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A306" t="s">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>259</v>
       </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A307" t="s">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
         <v>48</v>
       </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A308" t="s">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>408</v>
       </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A309" t="s">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
         <v>363</v>
       </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A310" t="s">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
         <v>94</v>
       </c>
-      <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A311" t="s">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
         <v>143</v>
       </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A312" t="s">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>346</v>
       </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A313" t="s">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>379</v>
       </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A314" t="s">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>303</v>
       </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A315" t="s">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
         <v>307</v>
       </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A316" t="s">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>356</v>
       </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A317" t="s">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>83</v>
       </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A318" t="s">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>229</v>
       </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A319" t="s">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>147</v>
       </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A320" t="s">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>434</v>
       </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A321" t="s">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>200</v>
       </c>
-      <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A322" t="s">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>372</v>
       </c>
-      <c r="B322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A323" t="s">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>19</v>
       </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A324" t="s">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
         <v>31</v>
       </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A325" t="s">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>358</v>
       </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A326" t="s">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>109</v>
       </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A327" t="s">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>333</v>
       </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A328" t="s">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>30</v>
       </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A329" t="s">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>33</v>
       </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A330" t="s">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>177</v>
       </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A331" t="s">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>261</v>
       </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A332" t="s">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
         <v>375</v>
       </c>
-      <c r="B332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A333" t="s">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>136</v>
       </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A334" t="s">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
         <v>134</v>
       </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A335" t="s">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>180</v>
       </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A336" t="s">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>160</v>
       </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A337" t="s">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>92</v>
       </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A338" t="s">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>217</v>
       </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A339" t="s">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>108</v>
       </c>
-      <c r="B339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A340" t="s">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>226</v>
       </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A341" t="s">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>290</v>
       </c>
-      <c r="B341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A342" t="s">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
         <v>438</v>
       </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A343" t="s">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
         <v>15</v>
       </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A344" t="s">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
         <v>376</v>
       </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A345" t="s">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
         <v>280</v>
       </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A346" t="s">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
         <v>153</v>
       </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A347" t="s">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
         <v>44</v>
       </c>
-      <c r="B347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A348" t="s">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>322</v>
       </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A349" t="s">
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>350</v>
       </c>
-      <c r="B349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A350" t="s">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>50</v>
       </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A351" t="s">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>201</v>
       </c>
-      <c r="B351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A352" t="s">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>273</v>
       </c>
-      <c r="B352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A353" t="s">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>439</v>
       </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A354" t="s">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>91</v>
       </c>
-      <c r="B354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A355" t="s">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>244</v>
       </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A356" t="s">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>105</v>
       </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A357" t="s">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>20</v>
       </c>
-      <c r="B357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A358" t="s">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
         <v>266</v>
       </c>
-      <c r="B358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A359" t="s">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
         <v>276</v>
       </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A360" t="s">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>436</v>
       </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A361" t="s">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>425</v>
       </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A362" t="s">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>75</v>
       </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A363" t="s">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>13</v>
       </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A364" t="s">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>35</v>
       </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A365" t="s">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>413</v>
       </c>
-      <c r="B365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A366" t="s">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>228</v>
       </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A367" t="s">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>428</v>
       </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A368" t="s">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
         <v>417</v>
       </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A369" t="s">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>77</v>
       </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A370" t="s">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
         <v>185</v>
       </c>
-      <c r="B370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A371" t="s">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
         <v>204</v>
       </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A372" t="s">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
         <v>238</v>
       </c>
-      <c r="B372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A373" t="s">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
         <v>100</v>
       </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A374" t="s">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>178</v>
       </c>
-      <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A375" t="s">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>415</v>
       </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A376" t="s">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>141</v>
       </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A377" t="s">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>126</v>
       </c>
-      <c r="B377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A378" t="s">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>127</v>
       </c>
-      <c r="B378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A379" t="s">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>175</v>
       </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A380" t="s">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>47</v>
       </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A381" t="s">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>166</v>
       </c>
-      <c r="B381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A382" t="s">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>2</v>
       </c>
-      <c r="B382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A383" t="s">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>130</v>
       </c>
-      <c r="B383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A384" t="s">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
         <v>98</v>
       </c>
-      <c r="B384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A385" t="s">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>62</v>
       </c>
-      <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A386" t="s">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>340</v>
       </c>
-      <c r="B386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A387" t="s">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
         <v>142</v>
       </c>
-      <c r="B387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A388" t="s">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
         <v>125</v>
       </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A389" t="s">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
         <v>99</v>
       </c>
-      <c r="B389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A390" t="s">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
         <v>146</v>
       </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A391" t="s">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
         <v>416</v>
       </c>
-      <c r="B391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A392" t="s">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>286</v>
       </c>
-      <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A393" t="s">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>72</v>
       </c>
-      <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A394" t="s">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>52</v>
       </c>
-      <c r="B394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A395" t="s">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>157</v>
       </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A396" t="s">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>88</v>
       </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A397" t="s">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>218</v>
       </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A398" t="s">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>351</v>
       </c>
-      <c r="B398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A399" t="s">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>63</v>
       </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A400" t="s">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>292</v>
       </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A401" t="s">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>85</v>
       </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A402" t="s">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>56</v>
       </c>
-      <c r="B402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A403" t="s">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>304</v>
       </c>
-      <c r="B403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A404" t="s">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>190</v>
       </c>
-      <c r="B404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A405" t="s">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
         <v>440</v>
       </c>
-      <c r="B405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A406" t="s">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>386</v>
       </c>
-      <c r="B406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A407" t="s">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
         <v>179</v>
       </c>
-      <c r="B407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A408" t="s">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>221</v>
       </c>
-      <c r="B408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A409" t="s">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
         <v>424</v>
       </c>
-      <c r="B409">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A410" t="s">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
         <v>310</v>
       </c>
-      <c r="B410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A411" t="s">
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
         <v>193</v>
       </c>
-      <c r="B411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A412" t="s">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>76</v>
       </c>
-      <c r="B412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A413" t="s">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
         <v>341</v>
       </c>
-      <c r="B413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A414" t="s">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
         <v>3</v>
       </c>
-      <c r="B414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A415" t="s">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
         <v>284</v>
       </c>
-      <c r="B415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A416" t="s">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
         <v>176</v>
       </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A417" t="s">
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
         <v>281</v>
       </c>
-      <c r="B417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A418" t="s">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
         <v>61</v>
       </c>
-      <c r="B418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A419" t="s">
-        <v>0</v>
-      </c>
       <c r="B419">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>0</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
         <v>427</v>
       </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A421" t="s">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
         <v>182</v>
       </c>
-      <c r="B421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A422" t="s">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
         <v>326</v>
       </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A423" t="s">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
         <v>222</v>
       </c>
-      <c r="B423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A424" t="s">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
         <v>116</v>
       </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A425" t="s">
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
         <v>345</v>
       </c>
-      <c r="B425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A426" t="s">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
         <v>360</v>
       </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A427" t="s">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
         <v>274</v>
       </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A428" t="s">
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
         <v>174</v>
       </c>
-      <c r="B428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A429" t="s">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
         <v>373</v>
       </c>
-      <c r="B429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A430" t="s">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
         <v>232</v>
       </c>
-      <c r="B430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A431" t="s">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
         <v>203</v>
       </c>
-      <c r="B431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A432" t="s">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
         <v>103</v>
       </c>
-      <c r="B432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A433" t="s">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
         <v>132</v>
       </c>
-      <c r="B433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A434" t="s">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
         <v>197</v>
       </c>
-      <c r="B434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A435" t="s">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
         <v>411</v>
       </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A436" t="s">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
         <v>25</v>
       </c>
-      <c r="B436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A437" t="s">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
         <v>186</v>
       </c>
-      <c r="B437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A438" t="s">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
         <v>6</v>
       </c>
-      <c r="B438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A439" t="s">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
         <v>429</v>
       </c>
-      <c r="B439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A440" t="s">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
         <v>93</v>
       </c>
-      <c r="B440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A441" t="s">
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
         <v>247</v>
       </c>
-      <c r="B441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A442" t="s">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
         <v>317</v>
       </c>
-      <c r="B442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A443" t="s">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
         <v>17</v>
       </c>
-      <c r="B443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A444" t="s">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
         <v>446</v>
       </c>
-      <c r="B444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A445" t="s">
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
         <v>65</v>
       </c>
-      <c r="B445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A446" t="s">
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
         <v>328</v>
       </c>
-      <c r="B446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A447" t="s">
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
         <v>137</v>
       </c>
-      <c r="B447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A448" t="s">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
         <v>46</v>
       </c>
-      <c r="B448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A449" t="s">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
         <v>339</v>
       </c>
-      <c r="B449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A450" t="s">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
         <v>9</v>
       </c>
-      <c r="B450">
+      <c r="B451">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B450">
-    <sortCondition ref="A2:A450"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B451">
+    <sortCondition ref="A2:A451"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6391,1515 +6416,2445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
-  <dimension ref="A1:A300"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="176.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>705</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>678</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>551</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>488</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>593</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>657</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>505</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>675</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>689</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>636</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>481</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>733</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>510</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>688</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>684</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>751</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>748</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>660</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>590</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>656</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>641</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>722</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>611</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>630</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>537</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>612</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>566</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>477</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>646</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>717</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>692</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>687</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>559</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>658</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>749</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>619</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>652</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>509</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>584</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>666</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>721</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>628</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>503</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>605</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>511</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>595</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>668</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>495</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>473</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>743</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>568</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>549</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>718</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>703</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>706</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>575</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>683</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>624</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>531</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>699</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>726</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>600</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>451</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>583</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>581</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>453</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>470</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>521</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>586</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>617</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>496</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>644</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>449</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>563</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>571</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>540</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>604</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>588</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>727</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>591</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>627</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>677</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>673</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>753</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>572</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>618</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>554</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>574</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>685</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>654</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>620</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>524</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>455</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>610</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>482</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>541</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>520</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>734</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>631</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>529</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>501</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>533</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>704</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>731</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>497</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>741</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>548</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>739</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>471</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>698</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>555</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>643</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>710</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>730</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>468</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>712</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>601</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>476</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>498</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>489</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>464</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>565</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>528</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>516</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>690</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>695</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>647</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>645</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>662</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>594</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>513</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>716</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>561</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>480</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>650</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>532</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>616</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>671</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>629</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>711</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>729</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>576</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>679</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>460</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>508</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>609</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>507</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>492</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>663</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>691</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>665</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>585</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>696</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>522</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>573</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>639</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>702</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>615</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>719</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>596</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>534</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>582</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>714</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>697</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>602</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>494</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>547</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>735</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>651</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>517</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>720</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>545</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>708</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>538</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>625</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>525</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>622</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>567</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>546</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>669</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>514</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>486</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>570</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>502</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>633</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>483</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>603</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>715</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>742</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>674</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>700</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>682</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>709</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>724</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>632</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>740</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>518</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>621</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>466</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>613</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>461</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>598</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>626</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>459</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>527</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>676</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>737</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>614</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>736</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>578</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>608</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>667</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>713</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>580</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>694</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>592</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>672</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>542</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B267" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>707</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>744</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>469</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>562</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>637</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>661</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>642</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>490</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>725</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>664</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>475</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>539</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>519</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>670</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>686</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>579</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>485</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>550</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>558</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>599</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>504</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>623</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>526</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>728</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>597</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A55" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A58" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A60" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A62" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A63" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A64" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A66" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A67" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A68" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A69" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A70" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A71" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A72" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A73" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A74" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A75" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A76" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A77" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A78" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A79" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A80" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A81" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A82" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A84" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A85" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A87" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A88" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A89" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A90" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A91" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A92" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A93" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A94" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A95" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A96" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A97" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A98" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A99" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A100" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A101" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A102" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A103" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A104" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A105" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A106" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A107" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A108" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A110" t="s">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>659</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>634</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>653</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>680</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>649</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>693</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A111" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A112" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A113" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A114" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A115" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A116" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A117" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A118" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A119" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A120" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A121" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A122" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A123" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A124" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A125" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A126" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A127" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A128" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A129" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A130" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A131" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A132" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A133" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A134" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A135" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A136" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A137" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A138" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A139" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A140" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A141" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A142" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A143" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A144" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A145" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A146" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A147" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A148" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A149" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A150" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A151" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A152" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A153" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A154" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A155" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A156" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A157" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A158" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A159" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A160" t="s">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A161" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A162" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A163" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A164" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A165" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A166" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A167" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A168" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A169" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A170" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A171" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A172" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A173" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A174" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A175" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A176" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A177" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A178" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A179" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A180" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A181" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A182" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A183" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A184" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A185" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A186" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A187" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A188" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A189" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A190" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A191" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A192" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A193" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A194" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A195" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A196" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A197" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A198" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A199" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A200" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A201" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A202" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A203" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A204" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A205" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A206" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A207" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A208" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A209" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A210" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A211" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A212" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A213" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A214" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A215" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A216" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A217" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A218" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A219" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A220" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A221" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A222" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A223" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A224" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A225" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A226" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A227" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A228" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A229" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A230" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A231" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A232" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A233" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A234" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A235" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A236" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A237" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A238" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A239" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A240" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A241" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A242" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A243" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A244" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A245" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A246" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A247" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A248" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A249" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A250" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A251" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A252" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A253" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A254" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A255" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A256" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A257" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A258" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A259" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A260" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A261" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A262" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A263" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A264" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A265" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A266" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A267" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A268" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A269" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A270" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A271" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A272" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A273" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A274" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A275" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A276" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A277" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A278" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A279" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A280" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A281" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A282" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A283" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A284" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A285" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A286" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A287" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A288" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A289" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A290" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A291" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A292" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A293" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A294" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A295" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A296" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A297" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A298" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A299" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A300" t="s">
-        <v>750</v>
+      <c r="B303">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B305">
+    <sortCondition ref="A3:A305"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094480A7-DDF4-1349-B673-9DA885695E66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515EFC75-F602-6544-BE96-FD33A62D7CA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2787,18 +2787,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="236.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>746</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -2814,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -2830,15 +2828,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>401</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -6418,9 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094480A7-DDF4-1349-B673-9DA885695E66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{33E8380A-C6A7-4EFE-B9CD-BFB81D2E44F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DF9FC74B-BFCC-47AF-B5D0-8232449EFDEB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="753">
   <si>
     <t>um açaí de um litro agora cairia muito bem😋😋😋</t>
   </si>
@@ -1804,9 +1804,6 @@
   </si>
   <si>
     <t>eu nunca fui tanto no açaí que nem eu fui esse fim de semana, o wandson é um vício da porra</t>
-  </si>
-  <si>
-    <t>- só queria um açaí</t>
   </si>
   <si>
     <t>rt @mariacaixeta15: todo mundo é tóxico por não me dá açaí</t>
@@ -2793,20 +2790,20 @@
       <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="236.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="236.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -2814,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -2870,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -2886,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2918,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>441</v>
       </c>
@@ -2934,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -2942,7 +2939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2958,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2966,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -2974,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2982,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>332</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>391</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3014,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -3038,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3046,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -3054,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>419</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>433</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3078,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>367</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>262</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -3158,15 +3155,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -3190,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -3198,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -3214,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>336</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3254,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -3262,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -3270,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>342</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -3302,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>442</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3326,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>377</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -3342,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>343</v>
       </c>
@@ -3350,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>248</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3366,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -3390,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -3398,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -3414,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>309</v>
       </c>
@@ -3430,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3438,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>267</v>
       </c>
@@ -3454,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -3494,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -3502,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -3518,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -3526,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -3534,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -3542,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -3558,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -3566,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -3574,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -3590,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>219</v>
       </c>
@@ -3606,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -3614,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>334</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>282</v>
       </c>
@@ -3662,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>57</v>
       </c>
@@ -3670,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -3686,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>357</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -3702,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -3718,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3726,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>393</v>
       </c>
@@ -3734,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>271</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>324</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -3758,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>389</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>368</v>
       </c>
@@ -3790,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>396</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>445</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>447</v>
       </c>
@@ -3822,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>302</v>
       </c>
@@ -3838,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -3846,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>107</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -3870,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>359</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>212</v>
       </c>
@@ -3902,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>400</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>407</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -3934,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>256</v>
       </c>
@@ -3942,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>361</v>
       </c>
@@ -3950,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>224</v>
       </c>
@@ -3958,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>68</v>
       </c>
@@ -3966,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>321</v>
       </c>
@@ -3990,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -3998,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>225</v>
       </c>
@@ -4014,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -4022,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>54</v>
       </c>
@@ -4038,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>390</v>
       </c>
@@ -4046,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>257</v>
       </c>
@@ -4054,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>402</v>
       </c>
@@ -4062,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>404</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>235</v>
       </c>
@@ -4086,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -4094,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>74</v>
       </c>
@@ -4102,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -4118,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>399</v>
       </c>
@@ -4126,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>412</v>
       </c>
@@ -4134,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>397</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>255</v>
       </c>
@@ -4158,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>387</v>
       </c>
@@ -4166,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>264</v>
       </c>
@@ -4174,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>319</v>
       </c>
@@ -4182,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>432</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>354</v>
       </c>
@@ -4206,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>268</v>
       </c>
@@ -4214,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>34</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -4230,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>237</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>260</v>
       </c>
@@ -4246,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>246</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>296</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>314</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -4294,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>325</v>
       </c>
@@ -4310,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -4318,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>291</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>306</v>
       </c>
@@ -4334,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>234</v>
       </c>
@@ -4342,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>381</v>
       </c>
@@ -4350,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -4358,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>364</v>
       </c>
@@ -4382,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>163</v>
       </c>
@@ -4390,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -4398,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>269</v>
       </c>
@@ -4406,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>101</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>318</v>
       </c>
@@ -4422,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>320</v>
       </c>
@@ -4430,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>152</v>
       </c>
@@ -4438,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -4446,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -4454,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>313</v>
       </c>
@@ -4462,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>311</v>
       </c>
@@ -4470,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>430</v>
       </c>
@@ -4478,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>275</v>
       </c>
@@ -4486,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4494,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>347</v>
       </c>
@@ -4502,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>308</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4526,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>423</v>
       </c>
@@ -4534,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>414</v>
       </c>
@@ -4542,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>299</v>
       </c>
@@ -4558,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>161</v>
       </c>
@@ -4566,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -4574,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>148</v>
       </c>
@@ -4582,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -4590,15 +4587,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>285</v>
       </c>
@@ -4606,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>300</v>
       </c>
@@ -4614,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>122</v>
       </c>
@@ -4622,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>422</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>388</v>
       </c>
@@ -4638,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>371</v>
       </c>
@@ -4646,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>245</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>335</v>
       </c>
@@ -4662,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>45</v>
       </c>
@@ -4670,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>410</v>
       </c>
@@ -4678,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>220</v>
       </c>
@@ -4686,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>79</v>
       </c>
@@ -4694,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>403</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -4710,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>374</v>
       </c>
@@ -4718,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>443</v>
       </c>
@@ -4726,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>145</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>213</v>
       </c>
@@ -4742,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>113</v>
       </c>
@@ -4750,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>139</v>
       </c>
@@ -4758,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>199</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>405</v>
       </c>
@@ -4774,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>156</v>
       </c>
@@ -4782,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>315</v>
       </c>
@@ -4790,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>133</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>327</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>55</v>
       </c>
@@ -4814,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>196</v>
       </c>
@@ -4822,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>409</v>
       </c>
@@ -4830,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>355</v>
       </c>
@@ -4838,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>287</v>
       </c>
@@ -4846,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>164</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>254</v>
       </c>
@@ -4862,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>36</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>426</v>
       </c>
@@ -4878,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>420</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>344</v>
       </c>
@@ -4894,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>135</v>
       </c>
@@ -4902,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -4910,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>115</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4926,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>385</v>
       </c>
@@ -4934,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>329</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>338</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>192</v>
       </c>
@@ -4958,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>230</v>
       </c>
@@ -4966,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -4974,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>421</v>
       </c>
@@ -4982,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>205</v>
       </c>
@@ -4990,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>366</v>
       </c>
@@ -4998,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>154</v>
       </c>
@@ -5006,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>406</v>
       </c>
@@ -5014,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>365</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -5030,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>131</v>
       </c>
@@ -5038,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>42</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -5054,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -5062,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>337</v>
       </c>
@@ -5070,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>128</v>
       </c>
@@ -5078,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>43</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>398</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>119</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>181</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>418</v>
       </c>
@@ -5118,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -5126,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>60</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -5142,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -5150,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>253</v>
       </c>
@@ -5158,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>305</v>
       </c>
@@ -5166,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>202</v>
       </c>
@@ -5174,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>289</v>
       </c>
@@ -5182,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>216</v>
       </c>
@@ -5190,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>370</v>
       </c>
@@ -5198,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -5206,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>382</v>
       </c>
@@ -5214,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
         <v>249</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A304" t="s">
         <v>239</v>
       </c>
@@ -5230,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A305" t="s">
         <v>444</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A306" t="s">
         <v>435</v>
       </c>
@@ -5246,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A307" t="s">
         <v>259</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -5262,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A309" t="s">
         <v>408</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A310" t="s">
         <v>363</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A311" t="s">
         <v>94</v>
       </c>
@@ -5286,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A312" t="s">
         <v>143</v>
       </c>
@@ -5294,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A313" t="s">
         <v>346</v>
       </c>
@@ -5302,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A314" t="s">
         <v>379</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A315" t="s">
         <v>303</v>
       </c>
@@ -5318,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A316" t="s">
         <v>307</v>
       </c>
@@ -5326,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A317" t="s">
         <v>356</v>
       </c>
@@ -5334,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A318" t="s">
         <v>83</v>
       </c>
@@ -5342,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A319" t="s">
         <v>229</v>
       </c>
@@ -5350,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A320" t="s">
         <v>147</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A321" t="s">
         <v>434</v>
       </c>
@@ -5366,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A322" t="s">
         <v>200</v>
       </c>
@@ -5374,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A323" t="s">
         <v>372</v>
       </c>
@@ -5382,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -5390,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A325" t="s">
         <v>31</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A326" t="s">
         <v>358</v>
       </c>
@@ -5406,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A327" t="s">
         <v>109</v>
       </c>
@@ -5414,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -5422,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A329" t="s">
         <v>30</v>
       </c>
@@ -5430,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A331" t="s">
         <v>177</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A332" t="s">
         <v>261</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A333" t="s">
         <v>375</v>
       </c>
@@ -5462,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A334" t="s">
         <v>136</v>
       </c>
@@ -5470,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A335" t="s">
         <v>134</v>
       </c>
@@ -5478,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A336" t="s">
         <v>180</v>
       </c>
@@ -5486,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A337" t="s">
         <v>160</v>
       </c>
@@ -5494,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -5502,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A339" t="s">
         <v>217</v>
       </c>
@@ -5510,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A340" t="s">
         <v>108</v>
       </c>
@@ -5518,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A341" t="s">
         <v>226</v>
       </c>
@@ -5526,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A342" t="s">
         <v>290</v>
       </c>
@@ -5534,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A343" t="s">
         <v>438</v>
       </c>
@@ -5542,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A345" t="s">
         <v>376</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A346" t="s">
         <v>280</v>
       </c>
@@ -5566,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -5574,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A348" t="s">
         <v>44</v>
       </c>
@@ -5582,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A349" t="s">
         <v>322</v>
       </c>
@@ -5590,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5598,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A351" t="s">
         <v>50</v>
       </c>
@@ -5606,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A352" t="s">
         <v>201</v>
       </c>
@@ -5614,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A353" t="s">
         <v>273</v>
       </c>
@@ -5622,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A354" t="s">
         <v>439</v>
       </c>
@@ -5630,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A355" t="s">
         <v>91</v>
       </c>
@@ -5638,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A356" t="s">
         <v>244</v>
       </c>
@@ -5646,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A357" t="s">
         <v>105</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -5670,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A360" t="s">
         <v>276</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A361" t="s">
         <v>436</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A362" t="s">
         <v>425</v>
       </c>
@@ -5694,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A363" t="s">
         <v>75</v>
       </c>
@@ -5702,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -5718,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A366" t="s">
         <v>413</v>
       </c>
@@ -5726,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A367" t="s">
         <v>228</v>
       </c>
@@ -5734,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A368" t="s">
         <v>428</v>
       </c>
@@ -5742,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A369" t="s">
         <v>417</v>
       </c>
@@ -5750,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A370" t="s">
         <v>77</v>
       </c>
@@ -5758,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A371" t="s">
         <v>185</v>
       </c>
@@ -5766,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A372" t="s">
         <v>204</v>
       </c>
@@ -5774,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A373" t="s">
         <v>238</v>
       </c>
@@ -5782,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A374" t="s">
         <v>100</v>
       </c>
@@ -5790,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A375" t="s">
         <v>178</v>
       </c>
@@ -5798,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A376" t="s">
         <v>415</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A377" t="s">
         <v>141</v>
       </c>
@@ -5814,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A378" t="s">
         <v>126</v>
       </c>
@@ -5822,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A379" t="s">
         <v>127</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A380" t="s">
         <v>175</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A381" t="s">
         <v>47</v>
       </c>
@@ -5846,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A382" t="s">
         <v>166</v>
       </c>
@@ -5854,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A383" t="s">
         <v>2</v>
       </c>
@@ -5862,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A384" t="s">
         <v>130</v>
       </c>
@@ -5870,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A385" t="s">
         <v>98</v>
       </c>
@@ -5878,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A386" t="s">
         <v>62</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A387" t="s">
         <v>340</v>
       </c>
@@ -5894,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A388" t="s">
         <v>142</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A389" t="s">
         <v>125</v>
       </c>
@@ -5910,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A390" t="s">
         <v>99</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A391" t="s">
         <v>146</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A392" t="s">
         <v>416</v>
       </c>
@@ -5934,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A393" t="s">
         <v>286</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A394" t="s">
         <v>72</v>
       </c>
@@ -5950,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A395" t="s">
         <v>52</v>
       </c>
@@ -5958,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A396" t="s">
         <v>157</v>
       </c>
@@ -5966,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A397" t="s">
         <v>88</v>
       </c>
@@ -5974,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A398" t="s">
         <v>218</v>
       </c>
@@ -5982,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A399" t="s">
         <v>351</v>
       </c>
@@ -5990,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A400" t="s">
         <v>63</v>
       </c>
@@ -5998,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A401" t="s">
         <v>292</v>
       </c>
@@ -6006,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A402" t="s">
         <v>85</v>
       </c>
@@ -6014,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A403" t="s">
         <v>56</v>
       </c>
@@ -6022,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A404" t="s">
         <v>304</v>
       </c>
@@ -6030,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A405" t="s">
         <v>190</v>
       </c>
@@ -6038,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -6046,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A407" t="s">
         <v>386</v>
       </c>
@@ -6054,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A408" t="s">
         <v>179</v>
       </c>
@@ -6062,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A409" t="s">
         <v>221</v>
       </c>
@@ -6070,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A410" t="s">
         <v>424</v>
       </c>
@@ -6078,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A411" t="s">
         <v>310</v>
       </c>
@@ -6086,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A412" t="s">
         <v>193</v>
       </c>
@@ -6094,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A413" t="s">
         <v>76</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A414" t="s">
         <v>341</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A415" t="s">
         <v>3</v>
       </c>
@@ -6118,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A416" t="s">
         <v>284</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A417" t="s">
         <v>176</v>
       </c>
@@ -6134,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A418" t="s">
         <v>281</v>
       </c>
@@ -6142,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A419" t="s">
         <v>61</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A420" t="s">
         <v>0</v>
       </c>
@@ -6158,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A422" t="s">
         <v>182</v>
       </c>
@@ -6174,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A423" t="s">
         <v>326</v>
       </c>
@@ -6182,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A424" t="s">
         <v>222</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A425" t="s">
         <v>116</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A426" t="s">
         <v>345</v>
       </c>
@@ -6206,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A427" t="s">
         <v>360</v>
       </c>
@@ -6214,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A428" t="s">
         <v>274</v>
       </c>
@@ -6222,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A429" t="s">
         <v>174</v>
       </c>
@@ -6230,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A430" t="s">
         <v>373</v>
       </c>
@@ -6238,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A431" t="s">
         <v>232</v>
       </c>
@@ -6246,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A432" t="s">
         <v>203</v>
       </c>
@@ -6254,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A433" t="s">
         <v>103</v>
       </c>
@@ -6262,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A434" t="s">
         <v>132</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A435" t="s">
         <v>197</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A436" t="s">
         <v>411</v>
       </c>
@@ -6286,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A437" t="s">
         <v>25</v>
       </c>
@@ -6294,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A438" t="s">
         <v>186</v>
       </c>
@@ -6302,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A440" t="s">
         <v>429</v>
       </c>
@@ -6318,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A441" t="s">
         <v>93</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A442" t="s">
         <v>247</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A443" t="s">
         <v>317</v>
       </c>
@@ -6342,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A444" t="s">
         <v>17</v>
       </c>
@@ -6350,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A445" t="s">
         <v>446</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A446" t="s">
         <v>65</v>
       </c>
@@ -6366,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A447" t="s">
         <v>328</v>
       </c>
@@ -6374,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A448" t="s">
         <v>137</v>
       </c>
@@ -6382,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A449" t="s">
         <v>46</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A450" t="s">
         <v>339</v>
       </c>
@@ -6398,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -6418,40 +6415,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="176.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="176.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" t="s">
         <v>746</v>
       </c>
-      <c r="B1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>569</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="e">
+        <f>- só queria um açaí</f>
+        <v>#NAME?</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -6459,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>523</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>553</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>560</v>
       </c>
@@ -6483,39 +6481,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>544</v>
       </c>
@@ -6523,23 +6521,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -6547,15 +6545,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>456</v>
       </c>
@@ -6563,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>478</v>
       </c>
@@ -6571,15 +6569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>556</v>
       </c>
@@ -6587,15 +6585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>515</v>
       </c>
@@ -6603,23 +6601,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>551</v>
       </c>
@@ -6627,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>564</v>
       </c>
@@ -6635,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -6643,31 +6641,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -6675,31 +6673,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>481</v>
       </c>
@@ -6707,15 +6705,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>491</v>
       </c>
@@ -6723,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>535</v>
       </c>
@@ -6731,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>510</v>
       </c>
@@ -6739,55 +6737,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>462</v>
       </c>
@@ -6795,47 +6793,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>537</v>
       </c>
@@ -6843,15 +6841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>566</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>477</v>
       </c>
@@ -6867,39 +6865,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>559</v>
       </c>
@@ -6907,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>472</v>
       </c>
@@ -6915,15 +6913,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>536</v>
       </c>
@@ -6931,39 +6929,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>500</v>
       </c>
@@ -6971,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>509</v>
       </c>
@@ -6979,23 +6977,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>452</v>
       </c>
@@ -7003,23 +7001,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>503</v>
       </c>
@@ -7027,15 +7025,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>511</v>
       </c>
@@ -7043,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>484</v>
       </c>
@@ -7051,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>487</v>
       </c>
@@ -7059,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>474</v>
       </c>
@@ -7067,23 +7065,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>495</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>473</v>
       </c>
@@ -7099,15 +7097,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>568</v>
       </c>
@@ -7115,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>549</v>
       </c>
@@ -7123,39 +7121,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>465</v>
       </c>
@@ -7163,23 +7161,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>531</v>
       </c>
@@ -7187,31 +7185,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>451</v>
       </c>
@@ -7219,15 +7217,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>450</v>
       </c>
@@ -7235,15 +7233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>453</v>
       </c>
@@ -7251,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>470</v>
       </c>
@@ -7259,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>521</v>
       </c>
@@ -7267,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>543</v>
       </c>
@@ -7275,23 +7273,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>496</v>
       </c>
@@ -7299,15 +7297,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>449</v>
       </c>
@@ -7315,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>563</v>
       </c>
@@ -7323,23 +7321,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>540</v>
       </c>
@@ -7347,39 +7345,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>479</v>
       </c>
@@ -7387,39 +7385,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>506</v>
       </c>
@@ -7427,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>467</v>
       </c>
@@ -7435,31 +7433,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>554</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>493</v>
       </c>
@@ -7475,39 +7473,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>524</v>
       </c>
@@ -7515,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>455</v>
       </c>
@@ -7523,15 +7521,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>552</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>482</v>
       </c>
@@ -7547,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>541</v>
       </c>
@@ -7555,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>520</v>
       </c>
@@ -7563,23 +7561,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>529</v>
       </c>
@@ -7587,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>501</v>
       </c>
@@ -7595,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>533</v>
       </c>
@@ -7603,23 +7601,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>497</v>
       </c>
@@ -7627,15 +7625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>548</v>
       </c>
@@ -7643,15 +7641,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>471</v>
       </c>
@@ -7659,15 +7657,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>555</v>
       </c>
@@ -7675,31 +7673,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>468</v>
       </c>
@@ -7707,23 +7705,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>476</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>498</v>
       </c>
@@ -7739,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>489</v>
       </c>
@@ -7747,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>464</v>
       </c>
@@ -7755,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>565</v>
       </c>
@@ -7763,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>528</v>
       </c>
@@ -7771,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>516</v>
       </c>
@@ -7779,55 +7777,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -7835,15 +7833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>561</v>
       </c>
@@ -7851,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>480</v>
       </c>
@@ -7859,15 +7857,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>532</v>
       </c>
@@ -7875,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>448</v>
       </c>
@@ -7883,63 +7881,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>460</v>
       </c>
@@ -7947,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>508</v>
       </c>
@@ -7955,15 +7953,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>507</v>
       </c>
@@ -7971,7 +7969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>492</v>
       </c>
@@ -7979,47 +7977,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>522</v>
       </c>
@@ -8027,55 +8025,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>534</v>
       </c>
@@ -8083,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>454</v>
       </c>
@@ -8091,39 +8089,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>494</v>
       </c>
@@ -8131,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>547</v>
       </c>
@@ -8139,23 +8137,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>517</v>
       </c>
@@ -8163,15 +8161,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>545</v>
       </c>
@@ -8179,15 +8177,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>538</v>
       </c>
@@ -8195,15 +8193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>525</v>
       </c>
@@ -8211,15 +8209,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>567</v>
       </c>
@@ -8227,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>546</v>
       </c>
@@ -8235,15 +8233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -8251,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>514</v>
       </c>
@@ -8259,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>486</v>
       </c>
@@ -8267,15 +8265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>502</v>
       </c>
@@ -8283,15 +8281,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>483</v>
       </c>
@@ -8299,87 +8297,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>518</v>
       </c>
@@ -8387,15 +8385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>466</v>
       </c>
@@ -8403,15 +8401,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>461</v>
       </c>
@@ -8419,23 +8417,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>459</v>
       </c>
@@ -8443,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>527</v>
       </c>
@@ -8451,103 +8449,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B254">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>542</v>
       </c>
@@ -8555,31 +8553,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A267" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B267" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>469</v>
       </c>
@@ -8587,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>562</v>
       </c>
@@ -8595,31 +8593,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>490</v>
       </c>
@@ -8627,23 +8625,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>475</v>
       </c>
@@ -8651,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>539</v>
       </c>
@@ -8659,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>519</v>
       </c>
@@ -8667,31 +8665,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>485</v>
       </c>
@@ -8699,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>550</v>
       </c>
@@ -8707,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>558</v>
       </c>
@@ -8715,15 +8713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>504</v>
       </c>
@@ -8731,15 +8729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>526</v>
       </c>
@@ -8747,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>458</v>
       </c>
@@ -8755,23 +8753,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>463</v>
       </c>
@@ -8779,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>512</v>
       </c>
@@ -8787,55 +8785,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>557</v>
       </c>
@@ -8843,9 +8841,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B303">
         <v>1</v>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{33E8380A-C6A7-4EFE-B9CD-BFB81D2E44F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DF9FC74B-BFCC-47AF-B5D0-8232449EFDEB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="114_{33E8380A-C6A7-4EFE-B9CD-BFB81D2E44F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B404C45E-88FD-4777-8F07-839DE3F7F0FC}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="753">
   <si>
     <t>um açaí de um litro agora cairia muito bem😋😋😋</t>
   </si>
@@ -893,11 +893,6 @@
     <t>rt @venturagabr: acho que vou ali comprar um açaí</t>
   </si>
   <si>
-    <t>[05/09/2019 09:54] cauã: vai fazer oque esse final de semana?  
- [05/09/2019 09:55] cauã: nada né? se quiser a gente toma um açaí na praça pago p vc 
- [05/09/2019 09:55] eduarda leal: já disse que você é um ótimo amigo hoje gato?</t>
-  </si>
-  <si>
     <t>queria tanto tomar um açaí</t>
   </si>
   <si>
@@ -2381,6 +2376,11 @@
   </si>
   <si>
     <t>nao gosto de acai</t>
+  </si>
+  <si>
+    <t>[05/09/0019 09:54] cauã: vai fazer oque esse final de semana?  
+ [05/09/0019 09:55] cauã: nada né? se quiser a gente toma um açaí na praça pago p vc 
+ [05/09/0019 09:55] eduarda leal: já disse que você é um ótimo amigo hoje gato?</t>
   </si>
 </sst>
 </file>
@@ -2439,13 +2439,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2786,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450"/>
+    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2797,15 +2800,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2820,8 +2823,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>277</v>
+      <c r="A4" s="4" t="s">
+        <v>752</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2829,7 +2832,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -2845,7 +2848,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2861,7 +2864,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -2901,7 +2904,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -2912,12 +2915,12 @@
         <v>167</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -2925,7 +2928,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2936,7 +2939,7 @@
         <v>227</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.75">
@@ -2952,7 +2955,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
@@ -2965,7 +2968,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -2981,7 +2984,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -3061,7 +3064,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -3085,7 +3088,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -3109,7 +3112,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -3117,7 +3120,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -3149,7 +3152,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -3181,7 +3184,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -3213,7 +3216,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -3221,7 +3224,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -3261,7 +3264,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -3277,7 +3280,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3325,7 +3328,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -3341,10 +3344,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.75">
@@ -3381,7 +3384,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -3405,7 +3408,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -3485,7 +3488,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -3509,7 +3512,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -3517,7 +3520,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -3525,7 +3528,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -3653,7 +3656,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -3685,7 +3688,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -3701,7 +3704,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -3725,7 +3728,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -3749,7 +3752,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -3765,7 +3768,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -3781,7 +3784,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
@@ -3797,7 +3800,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -3805,7 +3808,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
@@ -3813,7 +3816,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
@@ -3829,7 +3832,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -3869,7 +3872,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
@@ -3901,7 +3904,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -3941,7 +3944,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
@@ -3981,7 +3984,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4061,7 +4064,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -4069,7 +4072,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -4117,7 +4120,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
@@ -4125,7 +4128,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -4157,7 +4160,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
@@ -4173,7 +4176,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -4189,7 +4192,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
@@ -4197,10 +4200,10 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B176" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.75">
@@ -4221,7 +4224,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4261,7 +4264,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4269,7 +4272,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4301,7 +4304,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4341,7 +4344,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4413,7 +4416,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -4421,7 +4424,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -4453,7 +4456,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -4461,7 +4464,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -4469,7 +4472,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4493,7 +4496,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4509,7 +4512,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4525,7 +4528,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4589,15 +4592,15 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -4605,7 +4608,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -4621,7 +4624,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4653,7 +4656,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4693,7 +4696,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4717,7 +4720,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4765,7 +4768,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -4781,7 +4784,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -4829,7 +4832,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4837,7 +4840,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -4869,7 +4872,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4877,7 +4880,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4885,7 +4888,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4925,7 +4928,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4933,7 +4936,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -4941,7 +4944,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -4965,7 +4968,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -4973,7 +4976,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -5005,7 +5008,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5013,7 +5016,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5085,7 +5088,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5157,7 +5160,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5173,7 +5176,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -5189,7 +5192,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -5229,7 +5232,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A305" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -5237,7 +5240,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A306" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -5261,7 +5264,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A309" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -5269,7 +5272,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A310" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -5293,7 +5296,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A313" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -5301,7 +5304,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A314" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -5309,7 +5312,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A315" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A316" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -5325,7 +5328,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A317" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -5357,7 +5360,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A321" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -5397,7 +5400,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A326" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -5413,7 +5416,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A328" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5453,7 +5456,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A333" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -5525,7 +5528,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A342" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -5533,7 +5536,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A343" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -5549,7 +5552,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A345" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -5557,7 +5560,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A346" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -5581,7 +5584,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A349" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -5589,7 +5592,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -5621,7 +5624,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A354" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -5677,7 +5680,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A361" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -5685,7 +5688,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A362" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -5717,7 +5720,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A366" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -5733,7 +5736,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A368" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A369" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -5797,7 +5800,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A376" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A387" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -5925,7 +5928,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A392" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -5933,7 +5936,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A393" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -5981,7 +5984,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A399" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A401" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -6021,7 +6024,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A404" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6037,7 +6040,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A406" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -6045,7 +6048,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A407" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A410" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6077,7 +6080,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A411" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -6101,7 +6104,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A414" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -6117,7 +6120,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A416" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -6133,7 +6136,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A418" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -6157,7 +6160,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A421" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -6173,7 +6176,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A423" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -6197,7 +6200,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A426" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -6205,7 +6208,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A427" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -6229,7 +6232,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A430" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -6277,7 +6280,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A436" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -6309,7 +6312,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A440" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A443" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -6349,7 +6352,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A445" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -6365,7 +6368,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A447" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -6389,7 +6392,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A450" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -6413,10 +6416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A218" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6426,16 +6429,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1" t="s">
         <v>745</v>
       </c>
-      <c r="B1" t="s">
-        <v>746</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" t="e">
-        <f>- só queria um açaí</f>
-        <v>#NAME?</v>
+      <c r="A2" t="s">
+        <v>578</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6443,7 +6445,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6451,7 +6453,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6459,7 +6461,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6467,7 +6469,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6475,7 +6477,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6483,7 +6485,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6491,7 +6493,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6499,7 +6501,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6507,7 +6509,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6515,7 +6517,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6523,7 +6525,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6531,7 +6533,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6539,7 +6541,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6547,15 +6549,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6563,7 +6565,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6571,7 +6573,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6579,7 +6581,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6587,7 +6589,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6595,7 +6597,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6603,7 +6605,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6611,7 +6613,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6619,7 +6621,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6627,7 +6629,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6635,7 +6637,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6643,15 +6645,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6659,7 +6661,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6667,15 +6669,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6683,23 +6685,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6707,7 +6709,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6715,7 +6717,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6723,7 +6725,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6731,7 +6733,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6739,7 +6741,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -6747,7 +6749,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6755,23 +6757,23 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6779,7 +6781,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6787,7 +6789,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6795,7 +6797,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6803,7 +6805,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6811,7 +6813,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6819,7 +6821,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6827,7 +6829,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6835,7 +6837,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6843,7 +6845,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6851,7 +6853,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6859,7 +6861,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6867,7 +6869,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6875,7 +6877,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6883,7 +6885,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6891,7 +6893,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6899,7 +6901,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6907,7 +6909,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6915,7 +6917,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -6923,7 +6925,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -6931,15 +6933,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -6947,7 +6949,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -6955,7 +6957,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -6963,7 +6965,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6971,7 +6973,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6979,7 +6981,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6987,7 +6989,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6995,7 +6997,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7003,7 +7005,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -7011,7 +7013,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7019,7 +7021,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7027,7 +7029,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7035,7 +7037,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7043,7 +7045,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7051,7 +7053,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7059,7 +7061,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7067,7 +7069,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -7075,7 +7077,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7083,7 +7085,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7091,7 +7093,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7099,7 +7101,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7107,7 +7109,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7115,7 +7117,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -7123,7 +7125,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -7131,7 +7133,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -7139,7 +7141,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -7147,7 +7149,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -7155,7 +7157,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7163,7 +7165,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7171,7 +7173,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -7179,7 +7181,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -7187,7 +7189,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -7195,7 +7197,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -7203,7 +7205,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -7211,7 +7213,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7219,7 +7221,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -7227,7 +7229,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -7235,7 +7237,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7243,7 +7245,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7251,7 +7253,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -7259,7 +7261,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -7267,7 +7269,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -7275,7 +7277,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -7283,7 +7285,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -7291,7 +7293,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -7299,7 +7301,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -7307,7 +7309,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -7315,7 +7317,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -7323,7 +7325,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -7331,7 +7333,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -7339,7 +7341,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -7347,7 +7349,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -7355,7 +7357,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -7363,7 +7365,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -7371,7 +7373,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -7379,7 +7381,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -7387,7 +7389,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -7395,7 +7397,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -7403,7 +7405,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -7411,7 +7413,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -7419,7 +7421,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -7427,23 +7429,23 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -7451,7 +7453,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -7459,7 +7461,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -7467,7 +7469,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -7475,7 +7477,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -7483,7 +7485,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -7491,7 +7493,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -7499,7 +7501,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7507,7 +7509,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -7515,7 +7517,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -7523,7 +7525,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -7531,7 +7533,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -7539,7 +7541,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -7547,7 +7549,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7555,7 +7557,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -7563,7 +7565,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -7571,7 +7573,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7579,7 +7581,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -7587,7 +7589,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7595,7 +7597,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -7603,7 +7605,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7611,7 +7613,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7619,7 +7621,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -7627,7 +7629,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -7635,7 +7637,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7643,7 +7645,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7651,7 +7653,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7659,7 +7661,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7667,7 +7669,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7675,7 +7677,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7683,7 +7685,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7691,7 +7693,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7699,7 +7701,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7707,7 +7709,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7715,7 +7717,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7723,7 +7725,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7731,7 +7733,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7739,7 +7741,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7747,7 +7749,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -7755,7 +7757,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -7763,7 +7765,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7771,7 +7773,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -7779,7 +7781,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -7787,7 +7789,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -7795,7 +7797,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -7803,7 +7805,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -7811,7 +7813,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -7819,7 +7821,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -7827,7 +7829,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -7835,7 +7837,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -7843,7 +7845,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -7851,7 +7853,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -7859,7 +7861,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -7867,7 +7869,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -7875,7 +7877,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -7883,7 +7885,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -7891,7 +7893,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -7899,7 +7901,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -7907,7 +7909,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -7915,7 +7917,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -7923,7 +7925,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -7931,7 +7933,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -7939,7 +7941,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -7947,7 +7949,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -7955,7 +7957,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -7963,7 +7965,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -7971,7 +7973,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -7979,7 +7981,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -7987,7 +7989,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -7995,7 +7997,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -8003,7 +8005,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -8011,7 +8013,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -8019,7 +8021,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -8027,7 +8029,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -8035,7 +8037,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -8043,7 +8045,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -8051,7 +8053,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8059,7 +8061,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -8067,7 +8069,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -8075,7 +8077,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -8083,7 +8085,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -8091,7 +8093,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -8099,7 +8101,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -8107,7 +8109,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -8115,7 +8117,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -8123,7 +8125,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -8131,7 +8133,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -8139,7 +8141,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -8147,7 +8149,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -8155,15 +8157,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -8171,7 +8173,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -8179,7 +8181,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -8187,7 +8189,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -8195,7 +8197,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8203,7 +8205,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -8211,7 +8213,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -8219,7 +8221,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -8227,7 +8229,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -8235,7 +8237,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -8243,7 +8245,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -8251,7 +8253,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -8259,7 +8261,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -8267,7 +8269,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -8275,7 +8277,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -8283,7 +8285,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -8291,7 +8293,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -8299,7 +8301,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -8307,7 +8309,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -8315,7 +8317,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -8323,7 +8325,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -8331,7 +8333,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -8339,7 +8341,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -8347,7 +8349,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -8355,7 +8357,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -8363,7 +8365,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -8371,7 +8373,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -8379,7 +8381,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -8387,7 +8389,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -8395,7 +8397,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -8403,7 +8405,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -8411,7 +8413,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -8419,7 +8421,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -8427,7 +8429,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -8435,7 +8437,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -8443,7 +8445,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -8451,15 +8453,15 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -8467,7 +8469,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -8475,7 +8477,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -8483,7 +8485,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -8491,7 +8493,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -8499,7 +8501,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -8507,7 +8509,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -8515,7 +8517,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -8523,7 +8525,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -8531,7 +8533,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -8539,7 +8541,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -8547,23 +8549,23 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A267" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B267" t="s">
-        <v>746</v>
+      <c r="A267" t="s">
+        <v>705</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -8571,23 +8573,23 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
-        <v>743</v>
+        <v>468</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -8595,31 +8597,31 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
-        <v>641</v>
+        <v>489</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
-        <v>490</v>
+        <v>723</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -8627,15 +8629,15 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
-        <v>724</v>
+        <v>662</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
-        <v>663</v>
+        <v>474</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -8643,7 +8645,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -8651,15 +8653,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
-        <v>519</v>
+        <v>668</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -8667,7 +8669,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -8675,7 +8677,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
-        <v>685</v>
+        <v>577</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -8683,7 +8685,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -8691,15 +8693,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -8707,7 +8709,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -8715,7 +8717,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -8723,7 +8725,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
-        <v>504</v>
+        <v>621</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -8731,7 +8733,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -8739,7 +8741,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -8747,7 +8749,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
-        <v>458</v>
+        <v>726</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -8755,23 +8757,23 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
-        <v>727</v>
+        <v>595</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
-        <v>596</v>
+        <v>462</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -8779,23 +8781,23 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
-        <v>512</v>
+        <v>657</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -8803,7 +8805,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -8811,47 +8813,39 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A303" t="s">
-        <v>606</v>
-      </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B305">
-    <sortCondition ref="A3:A305"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B304">
+    <sortCondition ref="A3:A304"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{33E8380A-C6A7-4EFE-B9CD-BFB81D2E44F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DF9FC74B-BFCC-47AF-B5D0-8232449EFDEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF06A-7606-9B46-844E-5B199D4795D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="752">
   <si>
     <t>um açaí de um litro agora cairia muito bem😋😋😋</t>
   </si>
@@ -2375,9 +2375,6 @@
   </si>
   <si>
     <t>acai é muito ruim!!</t>
-  </si>
-  <si>
-    <t>Teste</t>
   </si>
   <si>
     <t>nao gosto de acai</t>
@@ -2786,16 +2783,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="236.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="236.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>745</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -2899,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -2907,15 +2904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>441</v>
       </c>
@@ -2931,15 +2928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>227</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2947,15 +2944,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>332</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>391</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -3003,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>419</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>433</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>367</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -3099,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3131,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>262</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>744</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -3203,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>336</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -3227,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>342</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>442</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>377</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>343</v>
       </c>
@@ -3347,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>248</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3371,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>210</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -3395,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>309</v>
       </c>
@@ -3427,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -3443,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>267</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>219</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -3611,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>334</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>282</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>57</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>357</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>393</v>
       </c>
@@ -3731,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>271</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>324</v>
       </c>
@@ -3747,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -3755,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>389</v>
       </c>
@@ -3763,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>368</v>
       </c>
@@ -3787,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -3795,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>396</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>445</v>
       </c>
@@ -3811,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>447</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -3827,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>302</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -3843,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>107</v>
       </c>
@@ -3859,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>359</v>
       </c>
@@ -3875,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>212</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>400</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>407</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>256</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>361</v>
       </c>
@@ -3947,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>224</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>68</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>321</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>225</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>54</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>390</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>257</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>402</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>404</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>383</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>235</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>74</v>
       </c>
@@ -4099,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -4107,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -4115,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>399</v>
       </c>
@@ -4123,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>412</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>397</v>
       </c>
@@ -4139,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4147,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>255</v>
       </c>
@@ -4155,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>387</v>
       </c>
@@ -4163,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>264</v>
       </c>
@@ -4171,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>319</v>
       </c>
@@ -4179,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -4187,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>432</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>354</v>
       </c>
@@ -4203,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>268</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>34</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>237</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>260</v>
       </c>
@@ -4243,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>246</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>296</v>
       </c>
@@ -4267,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>314</v>
       </c>
@@ -4275,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -4291,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>325</v>
       </c>
@@ -4307,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>291</v>
       </c>
@@ -4323,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>306</v>
       </c>
@@ -4331,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>234</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>381</v>
       </c>
@@ -4347,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -4363,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>364</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>163</v>
       </c>
@@ -4387,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>269</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>101</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>318</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>320</v>
       </c>
@@ -4427,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>152</v>
       </c>
@@ -4435,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>313</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>311</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>430</v>
       </c>
@@ -4475,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>275</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4491,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>347</v>
       </c>
@@ -4499,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>308</v>
       </c>
@@ -4515,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>423</v>
       </c>
@@ -4531,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>414</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -4547,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>299</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>161</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -4571,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>148</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>749</v>
       </c>
@@ -4595,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>285</v>
       </c>
@@ -4603,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>300</v>
       </c>
@@ -4611,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>122</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>422</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>388</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>371</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>245</v>
       </c>
@@ -4651,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>335</v>
       </c>
@@ -4659,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>45</v>
       </c>
@@ -4667,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>410</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>220</v>
       </c>
@@ -4683,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>79</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>403</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>374</v>
       </c>
@@ -4715,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>443</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>145</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>213</v>
       </c>
@@ -4739,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>113</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>139</v>
       </c>
@@ -4755,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>199</v>
       </c>
@@ -4763,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>405</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>156</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>315</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>133</v>
       </c>
@@ -4795,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>327</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>55</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>196</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>409</v>
       </c>
@@ -4827,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>355</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>287</v>
       </c>
@@ -4843,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>164</v>
       </c>
@@ -4851,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>254</v>
       </c>
@@ -4859,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>36</v>
       </c>
@@ -4867,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>426</v>
       </c>
@@ -4875,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>420</v>
       </c>
@@ -4883,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>344</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>135</v>
       </c>
@@ -4899,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>115</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4923,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>385</v>
       </c>
@@ -4931,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>329</v>
       </c>
@@ -4939,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>338</v>
       </c>
@@ -4947,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>192</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>230</v>
       </c>
@@ -4963,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -4971,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>421</v>
       </c>
@@ -4979,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>205</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>366</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>154</v>
       </c>
@@ -5003,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>406</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>365</v>
       </c>
@@ -5019,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>131</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>42</v>
       </c>
@@ -5043,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>73</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>337</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>128</v>
       </c>
@@ -5075,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>43</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>398</v>
       </c>
@@ -5091,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>119</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>181</v>
       </c>
@@ -5107,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>418</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>60</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>253</v>
       </c>
@@ -5155,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>305</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>202</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>289</v>
       </c>
@@ -5179,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>216</v>
       </c>
@@ -5187,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>370</v>
       </c>
@@ -5195,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>382</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>249</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>239</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>444</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>435</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>259</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -5259,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>408</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>363</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>94</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>143</v>
       </c>
@@ -5291,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>346</v>
       </c>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>379</v>
       </c>
@@ -5307,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>303</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>307</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>356</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>83</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>229</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>147</v>
       </c>
@@ -5355,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>434</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>200</v>
       </c>
@@ -5371,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>372</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>31</v>
       </c>
@@ -5395,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>358</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>109</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -5419,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>30</v>
       </c>
@@ -5427,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -5435,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>177</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>261</v>
       </c>
@@ -5451,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>375</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>136</v>
       </c>
@@ -5467,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>134</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>180</v>
       </c>
@@ -5483,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>160</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>217</v>
       </c>
@@ -5507,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>108</v>
       </c>
@@ -5515,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>226</v>
       </c>
@@ -5523,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>290</v>
       </c>
@@ -5531,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>438</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -5547,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>376</v>
       </c>
@@ -5555,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>280</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>44</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>322</v>
       </c>
@@ -5587,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>50</v>
       </c>
@@ -5603,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>201</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>273</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>439</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>91</v>
       </c>
@@ -5635,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>244</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>105</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -5659,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -5667,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>276</v>
       </c>
@@ -5675,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>436</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>425</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>75</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>413</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>228</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>428</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>417</v>
       </c>
@@ -5747,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>77</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>185</v>
       </c>
@@ -5763,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>204</v>
       </c>
@@ -5771,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>238</v>
       </c>
@@ -5779,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>100</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>178</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>415</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>141</v>
       </c>
@@ -5811,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>126</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>127</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>175</v>
       </c>
@@ -5835,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>47</v>
       </c>
@@ -5843,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>166</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>2</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>130</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>98</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>62</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>340</v>
       </c>
@@ -5891,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>142</v>
       </c>
@@ -5899,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>125</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>99</v>
       </c>
@@ -5915,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>146</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>416</v>
       </c>
@@ -5931,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>286</v>
       </c>
@@ -5939,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>72</v>
       </c>
@@ -5947,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>52</v>
       </c>
@@ -5955,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>157</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>88</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>218</v>
       </c>
@@ -5979,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>351</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>63</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>292</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>85</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>56</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>304</v>
       </c>
@@ -6027,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>190</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -6043,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>386</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>179</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>221</v>
       </c>
@@ -6067,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>424</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>310</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>193</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>76</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>341</v>
       </c>
@@ -6107,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>3</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>284</v>
       </c>
@@ -6123,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>176</v>
       </c>
@@ -6131,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>281</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>61</v>
       </c>
@@ -6147,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -6163,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>182</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>326</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>222</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>116</v>
       </c>
@@ -6195,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>345</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>360</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>274</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>174</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>373</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>232</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>203</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>103</v>
       </c>
@@ -6259,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>132</v>
       </c>
@@ -6267,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>197</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>411</v>
       </c>
@@ -6283,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>25</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>186</v>
       </c>
@@ -6299,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -6307,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>429</v>
       </c>
@@ -6315,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>93</v>
       </c>
@@ -6323,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>247</v>
       </c>
@@ -6331,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>317</v>
       </c>
@@ -6339,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>17</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>446</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>65</v>
       </c>
@@ -6363,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>328</v>
       </c>
@@ -6371,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>137</v>
       </c>
@@ -6379,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>46</v>
       </c>
@@ -6387,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>339</v>
       </c>
@@ -6395,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -6413,18 +6410,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="176.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="176.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>745</v>
       </c>
@@ -6432,2426 +6429,2409 @@
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" t="e">
-        <f>- só queria um açaí</f>
-        <v>#NAME?</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>700</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>499</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>731</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>722</v>
+        <v>530</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>737</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>737</v>
+        <v>456</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>647</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>515</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>634</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>488</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>605</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>656</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>674</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>688</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>635</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>732</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>510</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>687</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>683</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>750</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>659</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>589</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>655</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>640</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>721</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>610</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>629</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>537</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>611</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>566</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>645</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>716</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>691</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>686</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>559</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>472</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>657</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>536</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>748</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>618</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>680</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>651</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>500</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>509</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>583</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>665</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>720</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>627</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>503</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>604</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>487</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>594</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>667</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>495</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>473</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>742</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>568</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>549</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>717</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>702</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>705</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>574</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>465</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>682</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>623</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>531</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>698</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>725</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>599</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>451</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>582</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>450</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>580</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>453</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>470</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>521</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>543</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>585</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>616</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>496</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>643</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>563</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>639</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>570</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>540</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>603</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>587</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>726</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>590</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>479</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>626</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>676</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>672</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>654</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>506</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>647</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>556</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>704</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>515</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>677</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>634</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>551</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>564</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>592</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>605</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>656</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>505</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>674</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>688</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>635</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>481</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>732</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>491</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>535</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>510</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>687</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>683</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>750</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>747</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>659</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>589</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>462</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>655</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>640</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>721</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
-        <v>610</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
-        <v>629</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>537</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>611</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>566</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" t="s">
-        <v>477</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" t="s">
-        <v>645</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>716</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" t="s">
-        <v>691</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" t="s">
-        <v>686</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" t="s">
-        <v>559</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
-        <v>472</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A62" t="s">
-        <v>657</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A63" t="s">
-        <v>536</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A64" t="s">
-        <v>748</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
-        <v>618</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A66" t="s">
-        <v>680</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" t="s">
-        <v>651</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" t="s">
-        <v>500</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" t="s">
-        <v>509</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A70" t="s">
-        <v>583</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A71" t="s">
-        <v>665</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A73" t="s">
-        <v>720</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A74" t="s">
-        <v>627</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A75" t="s">
-        <v>503</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A76" t="s">
-        <v>604</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A77" t="s">
-        <v>511</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A78" t="s">
-        <v>484</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A80" t="s">
-        <v>474</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A81" t="s">
-        <v>594</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" t="s">
-        <v>667</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
-        <v>495</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" t="s">
-        <v>473</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A85" t="s">
-        <v>742</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A86" t="s">
-        <v>568</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A87" t="s">
-        <v>549</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A88" t="s">
-        <v>717</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A89" t="s">
-        <v>702</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A90" t="s">
-        <v>705</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A91" t="s">
-        <v>574</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A92" t="s">
-        <v>465</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A93" t="s">
-        <v>682</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A94" t="s">
-        <v>623</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A95" t="s">
-        <v>531</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A96" t="s">
-        <v>698</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A97" t="s">
-        <v>725</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A98" t="s">
-        <v>599</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A99" t="s">
-        <v>451</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A100" t="s">
-        <v>582</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A101" t="s">
-        <v>450</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A102" t="s">
-        <v>580</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A103" t="s">
-        <v>453</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A104" t="s">
-        <v>470</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A105" t="s">
-        <v>521</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A106" t="s">
-        <v>543</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A107" t="s">
-        <v>585</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A108" t="s">
-        <v>616</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A109" t="s">
-        <v>496</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A110" t="s">
-        <v>643</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A111" t="s">
-        <v>449</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A112" t="s">
-        <v>563</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A113" t="s">
-        <v>639</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A114" t="s">
-        <v>570</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A115" t="s">
-        <v>540</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A116" t="s">
-        <v>603</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A117" t="s">
-        <v>587</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A118" t="s">
-        <v>726</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A119" t="s">
-        <v>590</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A120" t="s">
-        <v>479</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A121" t="s">
-        <v>626</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A122" t="s">
-        <v>676</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A123" t="s">
-        <v>672</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A124" t="s">
-        <v>654</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A125" t="s">
-        <v>506</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>467</v>
+        <v>751</v>
       </c>
       <c r="B126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>752</v>
+        <v>571</v>
       </c>
       <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>573</v>
+        <v>684</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>619</v>
+        <v>524</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>524</v>
+        <v>455</v>
       </c>
       <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>520</v>
+        <v>733</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>733</v>
+        <v>630</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>630</v>
+        <v>529</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>533</v>
+        <v>703</v>
       </c>
       <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>730</v>
+        <v>497</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>497</v>
+        <v>740</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>740</v>
+        <v>548</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>548</v>
+        <v>738</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>738</v>
+        <v>471</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>471</v>
+        <v>697</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>697</v>
+        <v>555</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>642</v>
+        <v>709</v>
       </c>
       <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>729</v>
+        <v>468</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>468</v>
+        <v>711</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>600</v>
+        <v>476</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>516</v>
+        <v>689</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>694</v>
+        <v>646</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>593</v>
+        <v>513</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>513</v>
+        <v>715</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>715</v>
+        <v>561</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>480</v>
+        <v>649</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>532</v>
+        <v>448</v>
       </c>
       <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>448</v>
+        <v>615</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>728</v>
+        <v>575</v>
       </c>
       <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>575</v>
+        <v>678</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>678</v>
+        <v>460</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>508</v>
+        <v>608</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>608</v>
+        <v>507</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>492</v>
+        <v>662</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>664</v>
+        <v>584</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>584</v>
+        <v>695</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>695</v>
+        <v>522</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>638</v>
+        <v>701</v>
       </c>
       <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>701</v>
+        <v>614</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>614</v>
+        <v>718</v>
       </c>
       <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>718</v>
+        <v>595</v>
       </c>
       <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
       <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>454</v>
+        <v>581</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>581</v>
+        <v>713</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>696</v>
+        <v>601</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>601</v>
+        <v>494</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>547</v>
+        <v>734</v>
       </c>
       <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>734</v>
+        <v>650</v>
       </c>
       <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>650</v>
+        <v>517</v>
       </c>
       <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>517</v>
+        <v>719</v>
       </c>
       <c r="B217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>719</v>
+        <v>545</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>545</v>
+        <v>707</v>
       </c>
       <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>707</v>
+        <v>538</v>
       </c>
       <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>538</v>
+        <v>624</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>624</v>
+        <v>525</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>546</v>
+        <v>668</v>
       </c>
       <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>668</v>
+        <v>457</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>502</v>
+        <v>632</v>
       </c>
       <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>632</v>
+        <v>483</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>483</v>
+        <v>602</v>
       </c>
       <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>602</v>
+        <v>714</v>
       </c>
       <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
       <c r="B237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
       <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>631</v>
+        <v>739</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>739</v>
+        <v>518</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>518</v>
+        <v>620</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>620</v>
+        <v>466</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>527</v>
+        <v>675</v>
       </c>
       <c r="B253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>675</v>
+        <v>736</v>
       </c>
       <c r="B254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>736</v>
+        <v>613</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>613</v>
+        <v>735</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>735</v>
+        <v>577</v>
       </c>
       <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>607</v>
+        <v>666</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>712</v>
+        <v>579</v>
       </c>
       <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>693</v>
+        <v>591</v>
       </c>
       <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>671</v>
+        <v>542</v>
       </c>
       <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>542</v>
+        <v>706</v>
       </c>
       <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A267" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B267" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>743</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>706</v>
+        <v>469</v>
       </c>
       <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>743</v>
+        <v>562</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>469</v>
+        <v>636</v>
       </c>
       <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>562</v>
+        <v>660</v>
       </c>
       <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>660</v>
+        <v>490</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>490</v>
+        <v>663</v>
       </c>
       <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>724</v>
+        <v>475</v>
       </c>
       <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>663</v>
+        <v>539</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>539</v>
+        <v>669</v>
       </c>
       <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>519</v>
+        <v>685</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>669</v>
+        <v>578</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>685</v>
+        <v>485</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>622</v>
+        <v>458</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>526</v>
+        <v>727</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>458</v>
+        <v>596</v>
       </c>
       <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>727</v>
+        <v>463</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>596</v>
+        <v>512</v>
       </c>
       <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>463</v>
+        <v>658</v>
       </c>
       <c r="B294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>512</v>
+        <v>633</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>692</v>
+        <v>606</v>
       </c>
       <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A302" t="s">
-        <v>557</v>
-      </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A303" t="s">
-        <v>606</v>
-      </c>
-      <c r="B303">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B305">
-    <sortCondition ref="A3:A305"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
+    <sortCondition ref="A2:A303"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto-2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="114_{33E8380A-C6A7-4EFE-B9CD-BFB81D2E44F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B404C45E-88FD-4777-8F07-839DE3F7F0FC}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="114_{33E8380A-C6A7-4EFE-B9CD-BFB81D2E44F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3CAF8BA3-4181-4717-B085-9E2890303762}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2789,9 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B472" sqref="B472"/>
-    </sheetView>
+    <sheetView zoomScale="66" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -2822,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
         <v>752</v>
       </c>
@@ -6418,7 +6416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/base_acai.xlsx
+++ b/base_acai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenbeatriz/Desktop/INSPER/2º Semestre/Projeto-2_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF06A-7606-9B46-844E-5B199D4795D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72276BD-0282-4744-B844-25CA7266CEFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="753">
   <si>
     <t>um açaí de um litro agora cairia muito bem😋😋😋</t>
   </si>
@@ -2378,6 +2378,9 @@
   </si>
   <si>
     <t>nao gosto de acai</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6412,9 +6415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1A82E-BE7A-CD46-A18F-B48FE72093C4}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6423,7 +6424,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B1" t="s">
         <v>746</v>
